--- a/To Be Modeled/Adobe.xlsx
+++ b/To Be Modeled/Adobe.xlsx
@@ -2324,10 +2324,10 @@
         <v>470000000</v>
       </c>
       <c r="O31" s="7">
-        <v>459500000</v>
+        <v>460000000</v>
       </c>
       <c r="P31" s="6">
-        <v>465000000</v>
+        <v>467000000</v>
       </c>
       <c r="Q31" s="6">
         <v>459000000</v>
@@ -2383,10 +2383,10 @@
         <v>10.12</v>
       </c>
       <c r="O32" s="9">
-        <v>11.14</v>
+        <v>11.13</v>
       </c>
       <c r="P32" s="8">
-        <v>2.53</v>
+        <v>2.52</v>
       </c>
       <c r="Q32" s="8">
         <v>2.72</v>
@@ -2442,10 +2442,10 @@
         <v>10.12</v>
       </c>
       <c r="O33" s="9">
-        <v>11.14</v>
+        <v>11.13</v>
       </c>
       <c r="P33" s="8">
-        <v>2.53</v>
+        <v>2.52</v>
       </c>
       <c r="Q33" s="8">
         <v>2.72</v>
@@ -2501,10 +2501,10 @@
         <v>471000000</v>
       </c>
       <c r="O34" s="7">
-        <v>461000000</v>
+        <v>461250000</v>
       </c>
       <c r="P34" s="6">
-        <v>466000000</v>
+        <v>467000000</v>
       </c>
       <c r="Q34" s="6">
         <v>460000000</v>
@@ -2560,7 +2560,7 @@
         <v>10.1</v>
       </c>
       <c r="O35" s="9">
-        <v>11.11</v>
+        <v>11.1</v>
       </c>
       <c r="P35" s="8">
         <v>2.52</v>
@@ -2619,7 +2619,7 @@
         <v>10.1</v>
       </c>
       <c r="O36" s="9">
-        <v>11.11</v>
+        <v>11.1</v>
       </c>
       <c r="P36" s="8">
         <v>2.52</v>
@@ -3051,11 +3051,11 @@
       <c r="A44" s="5" t="str">
         <v>Sales per Employee</v>
       </c>
-      <c r="B44" s="6">
-        <v>416804</v>
-      </c>
-      <c r="C44" s="6">
-        <v>424812</v>
+      <c r="B44" s="6" t="str">
+        <v/>
+      </c>
+      <c r="C44" s="6" t="str">
+        <v/>
       </c>
       <c r="D44" s="6">
         <v>395161</v>
@@ -3069,11 +3069,11 @@
       <c r="G44" s="6">
         <v>345175</v>
       </c>
-      <c r="H44" s="6">
-        <v>372751</v>
-      </c>
-      <c r="I44" s="6">
-        <v>406249</v>
+      <c r="H44" s="6" t="str">
+        <v/>
+      </c>
+      <c r="I44" s="6" t="str">
+        <v/>
       </c>
       <c r="J44" s="6">
         <v>422813</v>
@@ -7613,7 +7613,7 @@
         <v>497809000</v>
       </c>
       <c r="H122" s="6">
-        <v>494456020</v>
+        <v>494456000</v>
       </c>
       <c r="I122" s="6">
         <v>491262000</v>
@@ -8007,11 +8007,11 @@
       <c r="A129" s="5" t="str">
         <v>Number of Employees</v>
       </c>
-      <c r="B129" s="6">
-        <v>9117</v>
-      </c>
-      <c r="C129" s="6">
-        <v>9925</v>
+      <c r="B129" s="6" t="str">
+        <v/>
+      </c>
+      <c r="C129" s="6" t="str">
+        <v/>
       </c>
       <c r="D129" s="6">
         <v>11144</v>
@@ -8025,11 +8025,11 @@
       <c r="G129" s="6">
         <v>13893</v>
       </c>
-      <c r="H129" s="6">
-        <v>15706</v>
-      </c>
-      <c r="I129" s="6">
-        <v>17973</v>
+      <c r="H129" s="6" t="str">
+        <v/>
+      </c>
+      <c r="I129" s="6" t="str">
+        <v/>
       </c>
       <c r="J129" s="6">
         <v>21357</v>
@@ -8401,7 +8401,7 @@
         <v>328000000</v>
       </c>
       <c r="O136" s="7">
-        <v>-122000000</v>
+        <v>-230000000</v>
       </c>
       <c r="P136" s="6">
         <v>46000000</v>
@@ -8412,8 +8412,8 @@
       <c r="R136" s="6">
         <v>-119000000</v>
       </c>
-      <c r="S136" s="6" t="str">
-        <v/>
+      <c r="S136" s="6">
+        <v>-108000000</v>
       </c>
     </row>
     <row r="137">
@@ -8519,7 +8519,7 @@
         <v>122000000</v>
       </c>
       <c r="O138" s="7">
-        <v>-43000000</v>
+        <v>65000000</v>
       </c>
       <c r="P138" s="6">
         <v>18000000</v>
@@ -8531,7 +8531,7 @@
         <v>12000000</v>
       </c>
       <c r="S138" s="6">
-        <v>-92000000</v>
+        <v>16000000</v>
       </c>
     </row>
     <row r="139">
@@ -8637,7 +8637,7 @@
         <v>-198000000</v>
       </c>
       <c r="O140" s="7">
-        <v>41000000</v>
+        <v>-127000000</v>
       </c>
       <c r="P140" s="6">
         <v>-344000000</v>
@@ -8648,8 +8648,8 @@
       <c r="R140" s="6">
         <v>116000000</v>
       </c>
-      <c r="S140" s="6" t="str">
-        <v/>
+      <c r="S140" s="6">
+        <v>-168000000</v>
       </c>
     </row>
     <row r="141">
@@ -8755,7 +8755,7 @@
         <v>-94000000</v>
       </c>
       <c r="O142" s="7">
-        <v>-523000000</v>
+        <v>-748000000</v>
       </c>
       <c r="P142" s="6">
         <v>39000000</v>
@@ -8766,8 +8766,8 @@
       <c r="R142" s="6">
         <v>-304000000</v>
       </c>
-      <c r="S142" s="6" t="str">
-        <v/>
+      <c r="S142" s="6">
+        <v>-225000000</v>
       </c>
     </row>
     <row r="143">
@@ -8814,7 +8814,7 @@
         <v>92000000</v>
       </c>
       <c r="O143" s="7">
-        <v>672000000</v>
+        <v>865000000</v>
       </c>
       <c r="P143" s="6">
         <v>316000000</v>
@@ -8825,8 +8825,8 @@
       <c r="R143" s="6">
         <v>582000000</v>
       </c>
-      <c r="S143" s="6" t="str">
-        <v/>
+      <c r="S143" s="6">
+        <v>193000000</v>
       </c>
     </row>
     <row r="144">
@@ -8873,7 +8873,7 @@
         <v>536000000</v>
       </c>
       <c r="O144" s="7">
-        <v>340000000</v>
+        <v>540000000</v>
       </c>
       <c r="P144" s="6">
         <v>471000000</v>
@@ -8885,7 +8885,7 @@
         <v>-96000000</v>
       </c>
       <c r="S144" s="6">
-        <v>-98000000</v>
+        <v>102000000</v>
       </c>
     </row>
     <row r="145">
@@ -9463,7 +9463,7 @@
         <v>-2000000</v>
       </c>
       <c r="O154" s="7">
-        <v>722000000</v>
+        <v>958000000</v>
       </c>
       <c r="P154" s="6">
         <v>22000000</v>
@@ -9474,8 +9474,8 @@
       <c r="R154" s="6">
         <v>443000000</v>
       </c>
-      <c r="S154" s="6" t="str">
-        <v/>
+      <c r="S154" s="6">
+        <v>236000000</v>
       </c>
     </row>
     <row r="155">
@@ -9522,7 +9522,7 @@
         <v>953000000</v>
       </c>
       <c r="O155" s="7">
-        <v>969000000</v>
+        <v>1205000000</v>
       </c>
       <c r="P155" s="6">
         <v>235000000</v>
@@ -9533,8 +9533,8 @@
       <c r="R155" s="6">
         <v>447000000</v>
       </c>
-      <c r="S155" s="6" t="str">
-        <v/>
+      <c r="S155" s="6">
+        <v>236000000</v>
       </c>
     </row>
     <row r="156">
@@ -9875,8 +9875,8 @@
       <c r="N161" s="6" t="str">
         <v/>
       </c>
-      <c r="O161" s="7">
-        <v>236000000</v>
+      <c r="O161" s="7" t="str">
+        <v/>
       </c>
       <c r="P161" s="6" t="str">
         <v/>
@@ -9887,8 +9887,8 @@
       <c r="R161" s="6" t="str">
         <v/>
       </c>
-      <c r="S161" s="6">
-        <v>236000000</v>
+      <c r="S161" s="6" t="str">
+        <v/>
       </c>
     </row>
     <row r="162">
@@ -11115,10 +11115,10 @@
         <v>15.74</v>
       </c>
       <c r="O182" s="9">
-        <v>16.6</v>
+        <v>16.58</v>
       </c>
       <c r="P182" s="8">
-        <v>4.8</v>
+        <v>4.78</v>
       </c>
       <c r="Q182" s="8">
         <v>3.47</v>
@@ -11174,19 +11174,19 @@
         <v>19.62</v>
       </c>
       <c r="O183" s="9">
-        <v>30.57</v>
+        <v>30.59</v>
       </c>
       <c r="P183" s="8">
-        <v>19.85</v>
+        <v>19.86</v>
       </c>
       <c r="Q183" s="8">
-        <v>18.73</v>
+        <v>18.74</v>
       </c>
       <c r="R183" s="8">
-        <v>23.69</v>
+        <v>23.7</v>
       </c>
       <c r="S183" s="8">
-        <v>30.91</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="184">
